--- a/rrd/AppData/DefineTeamSetup.xlsx
+++ b/rrd/AppData/DefineTeamSetup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RRDNewarg\rrd\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\RRD_Anshu\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FB6528-FAAE-483A-B7C6-E32682F43EC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CBF53D-FECF-4A36-A406-C0F98BE54515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyword" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="102">
   <si>
     <t>Team</t>
   </si>
@@ -822,7 +822,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1502,10 +1502,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98309287-A1A4-46F1-A7B9-AFD1BED164A7}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1625,8 +1625,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
+      <c r="A5" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>98</v>
@@ -1963,8 +1963,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
+      <c r="A18" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>99</v>
@@ -2119,8 +2119,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
+      <c r="A24" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>99</v>
@@ -2132,10 +2132,10 @@
         <v>99</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
         <v>68</v>
@@ -2145,8 +2145,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>96</v>
+      <c r="A25" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>16</v>
@@ -2158,30 +2158,30 @@
         <v>16</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>18</v>
+      <c r="A26" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>63</v>
@@ -2190,35 +2190,9 @@
         <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="3" t="s">
         <v>78</v>
       </c>
     </row>

--- a/rrd/AppData/DefineTeamSetup.xlsx
+++ b/rrd/AppData/DefineTeamSetup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\RRD_Anshu\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CBF53D-FECF-4A36-A406-C0F98BE54515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA84A3C3-CE47-4B8B-9820-AA5C3BB3E931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -822,7 +822,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1859,8 +1859,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
+      <c r="A14" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>16</v>
@@ -2067,8 +2067,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
+      <c r="A22" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>100</v>
